--- a/src/data/TAULA LLEGENDES PEL BANNER.xlsx
+++ b/src/data/TAULA LLEGENDES PEL BANNER.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joant\Documents\OBS-Scripts\overlay-plus\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joant\OneDrive\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB513EA-BA98-4A84-B63C-48FE67949F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C86A554-C1E8-49B8-99BA-8A1AEE117289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A3B62D0-B7EF-42EF-B27F-E7ECC57CAA40}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="242">
   <si>
     <t>NOM_VARIABLE</t>
   </si>
@@ -751,6 +751,18 @@
   </si>
   <si>
     <t>Gruix de neu màxim cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAR_DVM_2_m_graus       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Direcció vent 2m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAR_VVM_2_m_km_h   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAR_VVX_2_m_km_h     </t>
   </si>
 </sst>
 </file>
@@ -1176,10 +1188,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510D7824-2E98-43BF-985C-926B3D2CFE3D}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1297,90 +1309,90 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="B16" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B20" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s">
-        <v>222</v>
+        <v>221</v>
+      </c>
+      <c r="C21" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B24" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B25" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B26" t="s">
         <v>225</v>
@@ -1388,17 +1400,41 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B31" t="s">
         <v>226</v>
       </c>
     </row>
